--- a/PA3 Data.xlsx
+++ b/PA3 Data.xlsx
@@ -1,16 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26122"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28109"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apunjabi/Dropbox/Documents/Harvard/Semester 2/CS124/pa3/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16260" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16260" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Wrong Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Right Data" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -19,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>KK Residue</t>
   </si>
@@ -62,18 +71,47 @@
   <si>
     <t>Times SA Prepart</t>
   </si>
+  <si>
+    <t>Karmarkar-Karp Residue:</t>
+  </si>
+  <si>
+    <t>Times:</t>
+  </si>
+  <si>
+    <t>Repeated Random Standard Solution Representation:</t>
+  </si>
+  <si>
+    <t>Repeated Random Prepartition Solution Representation:</t>
+  </si>
+  <si>
+    <t>Hill Climbing Standard Solution Representation:</t>
+  </si>
+  <si>
+    <t>Hill Climbing Prepartition Solution Representation:</t>
+  </si>
+  <si>
+    <t>Simulated Annealing Standard Solution Representation:</t>
+  </si>
+  <si>
+    <t>Simulated Annealing Prepartition Solution Representation:</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
     </font>
   </fonts>
   <fills count="2">
@@ -96,14 +134,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -431,11 +475,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.5" customWidth="1"/>
     <col min="3" max="3" width="14.1640625" customWidth="1"/>
@@ -443,7 +487,7 @@
     <col min="7" max="7" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -487,7 +531,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>11795565528902</v>
       </c>
@@ -531,7 +575,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>549456070493</v>
       </c>
@@ -575,7 +619,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1380889944755</v>
       </c>
@@ -619,7 +663,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4340287224752</v>
       </c>
@@ -663,7 +707,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2507736606140</v>
       </c>
@@ -707,7 +751,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2910902881731</v>
       </c>
@@ -751,7 +795,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>375361453326</v>
       </c>
@@ -795,7 +839,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2873121517196</v>
       </c>
@@ -839,7 +883,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>3782161690486</v>
       </c>
@@ -883,7 +927,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>546415908918</v>
       </c>
@@ -927,7 +971,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>887181875138</v>
       </c>
@@ -971,7 +1015,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1853708304339</v>
       </c>
@@ -1015,7 +1059,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1990952894508</v>
       </c>
@@ -1059,7 +1103,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1332694845551</v>
       </c>
@@ -1103,7 +1147,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>148884657518</v>
       </c>
@@ -1147,7 +1191,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2661571849650</v>
       </c>
@@ -1191,7 +1235,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1565524429650</v>
       </c>
@@ -1235,7 +1279,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>459558158949</v>
       </c>
@@ -1279,7 +1323,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1049092688292</v>
       </c>
@@ -1323,7 +1367,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>721987861707</v>
       </c>
@@ -1367,7 +1411,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2151997104820</v>
       </c>
@@ -1411,7 +1455,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>304189336975</v>
       </c>
@@ -1455,7 +1499,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>772275217227</v>
       </c>
@@ -1499,7 +1543,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1860086115004</v>
       </c>
@@ -1543,7 +1587,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1000792043653</v>
       </c>
@@ -1587,7 +1631,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>3025417460268</v>
       </c>
@@ -1631,7 +1675,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>250878958457</v>
       </c>
@@ -1675,7 +1719,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2754004512662</v>
       </c>
@@ -1719,7 +1763,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2135138356480</v>
       </c>
@@ -1763,7 +1807,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>171469206708</v>
       </c>
@@ -1807,7 +1851,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>709625260009</v>
       </c>
@@ -1851,7 +1895,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>16854094141</v>
       </c>
@@ -1895,7 +1939,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>572927535939</v>
       </c>
@@ -1939,7 +1983,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>2019634295719</v>
       </c>
@@ -1983,7 +2027,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1529959315675</v>
       </c>
@@ -2027,7 +2071,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>5098475095794</v>
       </c>
@@ -2071,7 +2115,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>3526760151553</v>
       </c>
@@ -2115,7 +2159,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>351242406222</v>
       </c>
@@ -2159,7 +2203,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>11610318246265</v>
       </c>
@@ -2203,7 +2247,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>719311512786</v>
       </c>
@@ -2247,7 +2291,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1421280644025</v>
       </c>
@@ -2291,7 +2335,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>176777234821</v>
       </c>
@@ -2335,7 +2379,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1280809357485</v>
       </c>
@@ -2379,7 +2423,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="45" spans="1:16">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>917562730855</v>
       </c>
@@ -2423,7 +2467,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>1945510932555</v>
       </c>
@@ -2467,7 +2511,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="47" spans="1:16">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>633804760684</v>
       </c>
@@ -2511,7 +2555,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="48" spans="1:16">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>338861401146</v>
       </c>
@@ -2555,7 +2599,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="49" spans="1:16">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>357521017896</v>
       </c>
@@ -2599,7 +2643,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="50" spans="1:16">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>196977047380</v>
       </c>
@@ -2643,7 +2687,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="51" spans="1:16">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>10017436504928</v>
       </c>
@@ -2687,7 +2731,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="52" spans="1:16">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>274203601417</v>
       </c>
@@ -2731,7 +2775,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="53" spans="1:16">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>5003135542641</v>
       </c>
@@ -2775,7 +2819,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="54" spans="1:16">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>9774194912295</v>
       </c>
@@ -2819,7 +2863,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="55" spans="1:16">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>21969470330</v>
       </c>
@@ -2863,7 +2907,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="56" spans="1:16">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>513721941184</v>
       </c>
@@ -2907,7 +2951,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="57" spans="1:16">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>937287111443</v>
       </c>
@@ -2951,7 +2995,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="58" spans="1:16">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>1157027321789</v>
       </c>
@@ -2995,7 +3039,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="59" spans="1:16">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>388949619842</v>
       </c>
@@ -3039,7 +3083,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="60" spans="1:16">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>915867890050</v>
       </c>
@@ -3083,7 +3127,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="61" spans="1:16">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>51785914723</v>
       </c>
@@ -3127,7 +3171,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="62" spans="1:16">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>1044678177922</v>
       </c>
@@ -3171,7 +3215,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="63" spans="1:16">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>180106543661</v>
       </c>
@@ -3215,7 +3259,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="64" spans="1:16">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>3908344751414</v>
       </c>
@@ -3259,7 +3303,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="65" spans="1:16">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>5224406282478</v>
       </c>
@@ -3303,7 +3347,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="66" spans="1:16">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>27023107717</v>
       </c>
@@ -3347,7 +3391,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="67" spans="1:16">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>948828129746</v>
       </c>
@@ -3391,7 +3435,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="68" spans="1:16">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>457133593977</v>
       </c>
@@ -3435,7 +3479,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="69" spans="1:16">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>2666107268040</v>
       </c>
@@ -3479,7 +3523,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="70" spans="1:16">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>459227424852</v>
       </c>
@@ -3523,7 +3567,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="71" spans="1:16">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>1131366075213</v>
       </c>
@@ -3567,7 +3611,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="72" spans="1:16">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>818465805305</v>
       </c>
@@ -3611,7 +3655,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="73" spans="1:16">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>1496719228892</v>
       </c>
@@ -3655,7 +3699,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="74" spans="1:16">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>474795352680</v>
       </c>
@@ -3699,7 +3743,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="75" spans="1:16">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>299098617011</v>
       </c>
@@ -3743,7 +3787,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="76" spans="1:16">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>2377671277204</v>
       </c>
@@ -3787,7 +3831,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="77" spans="1:16">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>2928511020771</v>
       </c>
@@ -3831,7 +3875,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="78" spans="1:16">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>1214896237568</v>
       </c>
@@ -3875,7 +3919,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="79" spans="1:16">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>320907452752</v>
       </c>
@@ -3919,7 +3963,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="80" spans="1:16">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>2800721530832</v>
       </c>
@@ -3963,7 +4007,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="81" spans="1:16">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>4758946357803</v>
       </c>
@@ -4007,7 +4051,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="82" spans="1:16">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>546133159520</v>
       </c>
@@ -4051,7 +4095,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="83" spans="1:16">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>1578087194385</v>
       </c>
@@ -4095,7 +4139,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="84" spans="1:16">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>3866022149657</v>
       </c>
@@ -4139,7 +4183,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="85" spans="1:16">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>891207824692</v>
       </c>
@@ -4183,7 +4227,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="86" spans="1:16">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>972668749457</v>
       </c>
@@ -4227,7 +4271,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="87" spans="1:16">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>181503308058</v>
       </c>
@@ -4271,7 +4315,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="88" spans="1:16">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>116103254367</v>
       </c>
@@ -4315,7 +4359,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="89" spans="1:16">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>3205310391664</v>
       </c>
@@ -4359,7 +4403,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="90" spans="1:16">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>1347759675044</v>
       </c>
@@ -4403,7 +4447,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="91" spans="1:16">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>441133916587</v>
       </c>
@@ -4447,7 +4491,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="92" spans="1:16">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>4182417510860</v>
       </c>
@@ -4491,7 +4535,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="93" spans="1:16">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>56749361061</v>
       </c>
@@ -4535,7 +4579,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="94" spans="1:16">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>567256275862</v>
       </c>
@@ -4579,7 +4623,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="95" spans="1:16">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>1894959079402</v>
       </c>
@@ -4623,7 +4667,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="96" spans="1:16">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>536830021417</v>
       </c>
@@ -4667,7 +4711,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="97" spans="1:16">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>5412215224927</v>
       </c>
@@ -4711,7 +4755,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="98" spans="1:16">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>5943955173285</v>
       </c>
@@ -4755,7 +4799,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="99" spans="1:16">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>2027350608401</v>
       </c>
@@ -4799,7 +4843,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="100" spans="1:16">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>1587056551038</v>
       </c>
@@ -4843,7 +4887,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="101" spans="1:16">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>1132159795231</v>
       </c>
@@ -4889,10 +4933,4464 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T101"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>235075</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>776294355</v>
+      </c>
+      <c r="E2" s="1">
+        <v>185</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2611</v>
+      </c>
+      <c r="H2" s="1">
+        <v>227</v>
+      </c>
+      <c r="J2" s="1">
+        <v>28739721</v>
+      </c>
+      <c r="K2" s="1">
+        <v>13</v>
+      </c>
+      <c r="M2" s="1">
+        <v>277</v>
+      </c>
+      <c r="N2" s="1">
+        <v>154</v>
+      </c>
+      <c r="P2" s="1">
+        <v>2599357539</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>54</v>
+      </c>
+      <c r="S2" s="1">
+        <v>11</v>
+      </c>
+      <c r="T2" s="1">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>44055</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>571615115</v>
+      </c>
+      <c r="E3" s="1">
+        <v>162</v>
+      </c>
+      <c r="G3" s="1">
+        <v>677</v>
+      </c>
+      <c r="H3" s="1">
+        <v>216</v>
+      </c>
+      <c r="J3" s="1">
+        <v>30756083</v>
+      </c>
+      <c r="K3" s="1">
+        <v>4</v>
+      </c>
+      <c r="M3" s="1">
+        <v>125</v>
+      </c>
+      <c r="N3" s="1">
+        <v>154</v>
+      </c>
+      <c r="P3" s="1">
+        <v>43864551</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>17</v>
+      </c>
+      <c r="S3" s="1">
+        <v>569</v>
+      </c>
+      <c r="T3" s="1">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>103289</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>301106313</v>
+      </c>
+      <c r="E4" s="1">
+        <v>163</v>
+      </c>
+      <c r="G4" s="1">
+        <v>559</v>
+      </c>
+      <c r="H4" s="1">
+        <v>228</v>
+      </c>
+      <c r="J4" s="1">
+        <v>169591645</v>
+      </c>
+      <c r="K4" s="1">
+        <v>4</v>
+      </c>
+      <c r="M4" s="1">
+        <v>127</v>
+      </c>
+      <c r="N4" s="1">
+        <v>151</v>
+      </c>
+      <c r="P4" s="1">
+        <v>409907697</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>17</v>
+      </c>
+      <c r="S4" s="1">
+        <v>239</v>
+      </c>
+      <c r="T4" s="1">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>182364</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>204594670</v>
+      </c>
+      <c r="E5" s="1">
+        <v>162</v>
+      </c>
+      <c r="G5" s="1">
+        <v>634</v>
+      </c>
+      <c r="H5" s="1">
+        <v>207</v>
+      </c>
+      <c r="J5" s="1">
+        <v>139702756</v>
+      </c>
+      <c r="K5" s="1">
+        <v>4</v>
+      </c>
+      <c r="M5" s="1">
+        <v>16</v>
+      </c>
+      <c r="N5" s="1">
+        <v>155</v>
+      </c>
+      <c r="P5" s="1">
+        <v>300371256</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>17</v>
+      </c>
+      <c r="S5" s="1">
+        <v>292</v>
+      </c>
+      <c r="T5" s="1">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>706828</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>628395084</v>
+      </c>
+      <c r="E6" s="1">
+        <v>165</v>
+      </c>
+      <c r="G6" s="1">
+        <v>980</v>
+      </c>
+      <c r="H6" s="1">
+        <v>214</v>
+      </c>
+      <c r="J6" s="1">
+        <v>268780758</v>
+      </c>
+      <c r="K6" s="1">
+        <v>4</v>
+      </c>
+      <c r="M6" s="1">
+        <v>1042</v>
+      </c>
+      <c r="N6" s="1">
+        <v>147</v>
+      </c>
+      <c r="P6" s="1">
+        <v>321565496</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>16</v>
+      </c>
+      <c r="S6" s="1">
+        <v>384</v>
+      </c>
+      <c r="T6" s="1">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>685120</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>474772632</v>
+      </c>
+      <c r="E7" s="1">
+        <v>158</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1452</v>
+      </c>
+      <c r="H7" s="1">
+        <v>217</v>
+      </c>
+      <c r="J7" s="1">
+        <v>413968382</v>
+      </c>
+      <c r="K7" s="1">
+        <v>5</v>
+      </c>
+      <c r="M7" s="1">
+        <v>224</v>
+      </c>
+      <c r="N7" s="1">
+        <v>157</v>
+      </c>
+      <c r="P7" s="1">
+        <v>464986144</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>18</v>
+      </c>
+      <c r="S7" s="1">
+        <v>32</v>
+      </c>
+      <c r="T7" s="1">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>175799</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>78399363</v>
+      </c>
+      <c r="E8" s="1">
+        <v>162</v>
+      </c>
+      <c r="G8" s="1">
+        <v>94</v>
+      </c>
+      <c r="H8" s="1">
+        <v>212</v>
+      </c>
+      <c r="J8" s="1">
+        <v>580744719</v>
+      </c>
+      <c r="K8" s="1">
+        <v>4</v>
+      </c>
+      <c r="M8" s="1">
+        <v>333</v>
+      </c>
+      <c r="N8" s="1">
+        <v>156</v>
+      </c>
+      <c r="P8" s="1">
+        <v>158076019</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>20</v>
+      </c>
+      <c r="S8" s="1">
+        <v>349</v>
+      </c>
+      <c r="T8" s="1">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>156378</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>534503614</v>
+      </c>
+      <c r="E9" s="1">
+        <v>157</v>
+      </c>
+      <c r="G9" s="1">
+        <v>596</v>
+      </c>
+      <c r="H9" s="1">
+        <v>206</v>
+      </c>
+      <c r="J9" s="1">
+        <v>34672400</v>
+      </c>
+      <c r="K9" s="1">
+        <v>5</v>
+      </c>
+      <c r="M9" s="1">
+        <v>6</v>
+      </c>
+      <c r="N9" s="1">
+        <v>156</v>
+      </c>
+      <c r="P9" s="1">
+        <v>68218492</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>16</v>
+      </c>
+      <c r="S9" s="1">
+        <v>22</v>
+      </c>
+      <c r="T9" s="1">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>3656</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>57872174</v>
+      </c>
+      <c r="E10" s="1">
+        <v>164</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H10" s="1">
+        <v>223</v>
+      </c>
+      <c r="J10" s="1">
+        <v>45537694</v>
+      </c>
+      <c r="K10" s="1">
+        <v>4</v>
+      </c>
+      <c r="M10" s="1">
+        <v>346</v>
+      </c>
+      <c r="N10" s="1">
+        <v>156</v>
+      </c>
+      <c r="P10" s="1">
+        <v>124907550</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>18</v>
+      </c>
+      <c r="S10" s="1">
+        <v>116</v>
+      </c>
+      <c r="T10" s="1">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>327719</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>51172823</v>
+      </c>
+      <c r="E11" s="1">
+        <v>163</v>
+      </c>
+      <c r="G11" s="1">
+        <v>67</v>
+      </c>
+      <c r="H11" s="1">
+        <v>223</v>
+      </c>
+      <c r="J11" s="1">
+        <v>114325419</v>
+      </c>
+      <c r="K11" s="1">
+        <v>4</v>
+      </c>
+      <c r="M11" s="1">
+        <v>111</v>
+      </c>
+      <c r="N11" s="1">
+        <v>151</v>
+      </c>
+      <c r="P11" s="1">
+        <v>166758505</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>18</v>
+      </c>
+      <c r="S11" s="1">
+        <v>51</v>
+      </c>
+      <c r="T11" s="1">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>100657</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>235274603</v>
+      </c>
+      <c r="E12" s="1">
+        <v>162</v>
+      </c>
+      <c r="G12" s="1">
+        <v>457</v>
+      </c>
+      <c r="H12" s="1">
+        <v>216</v>
+      </c>
+      <c r="J12" s="1">
+        <v>199801491</v>
+      </c>
+      <c r="K12" s="1">
+        <v>4</v>
+      </c>
+      <c r="M12" s="1">
+        <v>45</v>
+      </c>
+      <c r="N12" s="1">
+        <v>151</v>
+      </c>
+      <c r="P12" s="1">
+        <v>858921611</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>18</v>
+      </c>
+      <c r="S12" s="1">
+        <v>87</v>
+      </c>
+      <c r="T12" s="1">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>27795</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>272130125</v>
+      </c>
+      <c r="E13" s="1">
+        <v>160</v>
+      </c>
+      <c r="G13" s="1">
+        <v>504</v>
+      </c>
+      <c r="H13" s="1">
+        <v>227</v>
+      </c>
+      <c r="J13" s="1">
+        <v>257033381</v>
+      </c>
+      <c r="K13" s="1">
+        <v>4</v>
+      </c>
+      <c r="M13" s="1">
+        <v>1245</v>
+      </c>
+      <c r="N13" s="1">
+        <v>145</v>
+      </c>
+      <c r="P13" s="1">
+        <v>301175561</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>21</v>
+      </c>
+      <c r="S13" s="1">
+        <v>117</v>
+      </c>
+      <c r="T13" s="1">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>45145</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>142199849</v>
+      </c>
+      <c r="E14" s="1">
+        <v>158</v>
+      </c>
+      <c r="G14" s="1">
+        <v>187</v>
+      </c>
+      <c r="H14" s="1">
+        <v>218</v>
+      </c>
+      <c r="J14" s="1">
+        <v>116526781</v>
+      </c>
+      <c r="K14" s="1">
+        <v>4</v>
+      </c>
+      <c r="M14" s="1">
+        <v>71</v>
+      </c>
+      <c r="N14" s="1">
+        <v>154</v>
+      </c>
+      <c r="P14" s="1">
+        <v>817132277</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>17</v>
+      </c>
+      <c r="S14" s="1">
+        <v>239</v>
+      </c>
+      <c r="T14" s="1">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>84680</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <v>312631914</v>
+      </c>
+      <c r="E15" s="1">
+        <v>158</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1862</v>
+      </c>
+      <c r="H15" s="1">
+        <v>208</v>
+      </c>
+      <c r="J15" s="1">
+        <v>101607652</v>
+      </c>
+      <c r="K15" s="1">
+        <v>5</v>
+      </c>
+      <c r="M15" s="1">
+        <v>68</v>
+      </c>
+      <c r="N15" s="1">
+        <v>161</v>
+      </c>
+      <c r="P15" s="1">
+        <v>675945010</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>16</v>
+      </c>
+      <c r="S15" s="1">
+        <v>86</v>
+      </c>
+      <c r="T15" s="1">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>1061667</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1">
+        <v>96313785</v>
+      </c>
+      <c r="E16" s="1">
+        <v>160</v>
+      </c>
+      <c r="G16" s="1">
+        <v>2133</v>
+      </c>
+      <c r="H16" s="1">
+        <v>211</v>
+      </c>
+      <c r="J16" s="1">
+        <v>13184687</v>
+      </c>
+      <c r="K16" s="1">
+        <v>4</v>
+      </c>
+      <c r="M16" s="1">
+        <v>699</v>
+      </c>
+      <c r="N16" s="1">
+        <v>154</v>
+      </c>
+      <c r="P16" s="1">
+        <v>20575679</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>16</v>
+      </c>
+      <c r="S16" s="1">
+        <v>75</v>
+      </c>
+      <c r="T16" s="1">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>144604</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1">
+        <v>106997726</v>
+      </c>
+      <c r="E17" s="1">
+        <v>163</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1208</v>
+      </c>
+      <c r="H17" s="1">
+        <v>210</v>
+      </c>
+      <c r="J17" s="1">
+        <v>4004556</v>
+      </c>
+      <c r="K17" s="1">
+        <v>4</v>
+      </c>
+      <c r="M17" s="1">
+        <v>320</v>
+      </c>
+      <c r="N17" s="1">
+        <v>158</v>
+      </c>
+      <c r="P17" s="1">
+        <v>368971920</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>17</v>
+      </c>
+      <c r="S17" s="1">
+        <v>498</v>
+      </c>
+      <c r="T17" s="1">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>1140384</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1">
+        <v>69871594</v>
+      </c>
+      <c r="E18" s="1">
+        <v>163</v>
+      </c>
+      <c r="G18" s="1">
+        <v>120</v>
+      </c>
+      <c r="H18" s="1">
+        <v>214</v>
+      </c>
+      <c r="J18" s="1">
+        <v>277553060</v>
+      </c>
+      <c r="K18" s="1">
+        <v>6</v>
+      </c>
+      <c r="M18" s="1">
+        <v>2022</v>
+      </c>
+      <c r="N18" s="1">
+        <v>156</v>
+      </c>
+      <c r="P18" s="1">
+        <v>423915276</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>17</v>
+      </c>
+      <c r="S18" s="1">
+        <v>92</v>
+      </c>
+      <c r="T18" s="1">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>179863</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1">
+        <v>12439117</v>
+      </c>
+      <c r="E19" s="1">
+        <v>169</v>
+      </c>
+      <c r="G19" s="1">
+        <v>10844</v>
+      </c>
+      <c r="H19" s="1">
+        <v>220</v>
+      </c>
+      <c r="J19" s="1">
+        <v>757170679</v>
+      </c>
+      <c r="K19" s="1">
+        <v>5</v>
+      </c>
+      <c r="M19" s="1">
+        <v>185</v>
+      </c>
+      <c r="N19" s="1">
+        <v>149</v>
+      </c>
+      <c r="P19" s="1">
+        <v>149871107</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>17</v>
+      </c>
+      <c r="S19" s="1">
+        <v>63</v>
+      </c>
+      <c r="T19" s="1">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>555899</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1">
+        <v>177964263</v>
+      </c>
+      <c r="E20" s="1">
+        <v>165</v>
+      </c>
+      <c r="G20" s="1">
+        <v>4771</v>
+      </c>
+      <c r="H20" s="1">
+        <v>214</v>
+      </c>
+      <c r="J20" s="1">
+        <v>779162405</v>
+      </c>
+      <c r="K20" s="1">
+        <v>5</v>
+      </c>
+      <c r="M20" s="1">
+        <v>103</v>
+      </c>
+      <c r="N20" s="1">
+        <v>155</v>
+      </c>
+      <c r="P20" s="1">
+        <v>281076637</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>19</v>
+      </c>
+      <c r="S20" s="1">
+        <v>167</v>
+      </c>
+      <c r="T20" s="1">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>55914</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1">
+        <v>68733516</v>
+      </c>
+      <c r="E21" s="1">
+        <v>160</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1988</v>
+      </c>
+      <c r="H21" s="1">
+        <v>225</v>
+      </c>
+      <c r="J21" s="1">
+        <v>31017214</v>
+      </c>
+      <c r="K21" s="1">
+        <v>4</v>
+      </c>
+      <c r="M21" s="1">
+        <v>654</v>
+      </c>
+      <c r="N21" s="1">
+        <v>156</v>
+      </c>
+      <c r="P21" s="1">
+        <v>19354856</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>18</v>
+      </c>
+      <c r="S21" s="1">
+        <v>30</v>
+      </c>
+      <c r="T21" s="1">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>312815</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1">
+        <v>39569987</v>
+      </c>
+      <c r="E22" s="1">
+        <v>168</v>
+      </c>
+      <c r="G22" s="1">
+        <v>114</v>
+      </c>
+      <c r="H22" s="1">
+        <v>219</v>
+      </c>
+      <c r="J22" s="1">
+        <v>414573019</v>
+      </c>
+      <c r="K22" s="1">
+        <v>6</v>
+      </c>
+      <c r="M22" s="1">
+        <v>255</v>
+      </c>
+      <c r="N22" s="1">
+        <v>159</v>
+      </c>
+      <c r="P22" s="1">
+        <v>378967513</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>18</v>
+      </c>
+      <c r="S22" s="1">
+        <v>93</v>
+      </c>
+      <c r="T22" s="1">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>36754</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1">
+        <v>505710094</v>
+      </c>
+      <c r="E23" s="1">
+        <v>169</v>
+      </c>
+      <c r="G23" s="1">
+        <v>432</v>
+      </c>
+      <c r="H23" s="1">
+        <v>219</v>
+      </c>
+      <c r="J23" s="1">
+        <v>19488188</v>
+      </c>
+      <c r="K23" s="1">
+        <v>4</v>
+      </c>
+      <c r="M23" s="1">
+        <v>58</v>
+      </c>
+      <c r="N23" s="1">
+        <v>148</v>
+      </c>
+      <c r="P23" s="1">
+        <v>326406284</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>18</v>
+      </c>
+      <c r="S23" s="1">
+        <v>218</v>
+      </c>
+      <c r="T23" s="1">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>3638</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1">
+        <v>311200018</v>
+      </c>
+      <c r="E24" s="1">
+        <v>167</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1350</v>
+      </c>
+      <c r="H24" s="1">
+        <v>219</v>
+      </c>
+      <c r="J24" s="1">
+        <v>157845242</v>
+      </c>
+      <c r="K24" s="1">
+        <v>4</v>
+      </c>
+      <c r="M24" s="1">
+        <v>84</v>
+      </c>
+      <c r="N24" s="1">
+        <v>152</v>
+      </c>
+      <c r="P24" s="1">
+        <v>436044900</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>18</v>
+      </c>
+      <c r="S24" s="1">
+        <v>164</v>
+      </c>
+      <c r="T24" s="1">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>95654</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1">
+        <v>56496742</v>
+      </c>
+      <c r="E25" s="1">
+        <v>162</v>
+      </c>
+      <c r="G25" s="1">
+        <v>648</v>
+      </c>
+      <c r="H25" s="1">
+        <v>255</v>
+      </c>
+      <c r="J25" s="1">
+        <v>20763018</v>
+      </c>
+      <c r="K25" s="1">
+        <v>5</v>
+      </c>
+      <c r="M25" s="1">
+        <v>114</v>
+      </c>
+      <c r="N25" s="1">
+        <v>159</v>
+      </c>
+      <c r="P25" s="1">
+        <v>468534896</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>18</v>
+      </c>
+      <c r="S25" s="1">
+        <v>308</v>
+      </c>
+      <c r="T25" s="1">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>14797</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1">
+        <v>2689738607</v>
+      </c>
+      <c r="E26" s="1">
+        <v>168</v>
+      </c>
+      <c r="G26" s="1">
+        <v>2054</v>
+      </c>
+      <c r="H26" s="1">
+        <v>217</v>
+      </c>
+      <c r="J26" s="1">
+        <v>193756549</v>
+      </c>
+      <c r="K26" s="1">
+        <v>4</v>
+      </c>
+      <c r="M26" s="1">
+        <v>47</v>
+      </c>
+      <c r="N26" s="1">
+        <v>165</v>
+      </c>
+      <c r="P26" s="1">
+        <v>664817023</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>19</v>
+      </c>
+      <c r="S26" s="1">
+        <v>231</v>
+      </c>
+      <c r="T26" s="1">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>25882</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1">
+        <v>88035228</v>
+      </c>
+      <c r="E27" s="1">
+        <v>164</v>
+      </c>
+      <c r="G27" s="1">
+        <v>2074</v>
+      </c>
+      <c r="H27" s="1">
+        <v>228</v>
+      </c>
+      <c r="J27" s="1">
+        <v>158309110</v>
+      </c>
+      <c r="K27" s="1">
+        <v>4</v>
+      </c>
+      <c r="M27" s="1">
+        <v>306</v>
+      </c>
+      <c r="N27" s="1">
+        <v>161</v>
+      </c>
+      <c r="P27" s="1">
+        <v>179212010</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>17</v>
+      </c>
+      <c r="S27" s="1">
+        <v>286</v>
+      </c>
+      <c r="T27" s="1">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>327056</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1">
+        <v>226532582</v>
+      </c>
+      <c r="E28" s="1">
+        <v>167</v>
+      </c>
+      <c r="G28" s="1">
+        <v>824</v>
+      </c>
+      <c r="H28" s="1">
+        <v>221</v>
+      </c>
+      <c r="J28" s="1">
+        <v>160781780</v>
+      </c>
+      <c r="K28" s="1">
+        <v>4</v>
+      </c>
+      <c r="M28" s="1">
+        <v>234</v>
+      </c>
+      <c r="N28" s="1">
+        <v>166</v>
+      </c>
+      <c r="P28" s="1">
+        <v>554665960</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>18</v>
+      </c>
+      <c r="S28" s="1">
+        <v>112</v>
+      </c>
+      <c r="T28" s="1">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>25388</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1">
+        <v>196658216</v>
+      </c>
+      <c r="E29" s="1">
+        <v>162</v>
+      </c>
+      <c r="G29" s="1">
+        <v>2096</v>
+      </c>
+      <c r="H29" s="1">
+        <v>224</v>
+      </c>
+      <c r="J29" s="1">
+        <v>249120494</v>
+      </c>
+      <c r="K29" s="1">
+        <v>4</v>
+      </c>
+      <c r="M29" s="1">
+        <v>118</v>
+      </c>
+      <c r="N29" s="1">
+        <v>154</v>
+      </c>
+      <c r="P29" s="1">
+        <v>100661878</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>18</v>
+      </c>
+      <c r="S29" s="1">
+        <v>256</v>
+      </c>
+      <c r="T29" s="1">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>48664</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1">
+        <v>17135676</v>
+      </c>
+      <c r="E30" s="1">
+        <v>163</v>
+      </c>
+      <c r="G30" s="1">
+        <v>450</v>
+      </c>
+      <c r="H30" s="1">
+        <v>221</v>
+      </c>
+      <c r="J30" s="1">
+        <v>208082216</v>
+      </c>
+      <c r="K30" s="1">
+        <v>5</v>
+      </c>
+      <c r="M30" s="1">
+        <v>140</v>
+      </c>
+      <c r="N30" s="1">
+        <v>153</v>
+      </c>
+      <c r="P30" s="1">
+        <v>15241268</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>17</v>
+      </c>
+      <c r="S30" s="1">
+        <v>56</v>
+      </c>
+      <c r="T30" s="1">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>73917</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0</v>
+      </c>
+      <c r="D31" s="1">
+        <v>235983235</v>
+      </c>
+      <c r="E31" s="1">
+        <v>168</v>
+      </c>
+      <c r="G31" s="1">
+        <v>295</v>
+      </c>
+      <c r="H31" s="1">
+        <v>219</v>
+      </c>
+      <c r="J31" s="1">
+        <v>175697443</v>
+      </c>
+      <c r="K31" s="1">
+        <v>4</v>
+      </c>
+      <c r="M31" s="1">
+        <v>195</v>
+      </c>
+      <c r="N31" s="1">
+        <v>161</v>
+      </c>
+      <c r="P31" s="1">
+        <v>792311139</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>16</v>
+      </c>
+      <c r="S31" s="1">
+        <v>7</v>
+      </c>
+      <c r="T31" s="1">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>45732</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0</v>
+      </c>
+      <c r="D32" s="1">
+        <v>276170202</v>
+      </c>
+      <c r="E32" s="1">
+        <v>159</v>
+      </c>
+      <c r="G32" s="1">
+        <v>1686</v>
+      </c>
+      <c r="H32" s="1">
+        <v>219</v>
+      </c>
+      <c r="J32" s="1">
+        <v>746081786</v>
+      </c>
+      <c r="K32" s="1">
+        <v>4</v>
+      </c>
+      <c r="M32" s="1">
+        <v>112</v>
+      </c>
+      <c r="N32" s="1">
+        <v>155</v>
+      </c>
+      <c r="P32" s="1">
+        <v>662063646</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>16</v>
+      </c>
+      <c r="S32" s="1">
+        <v>46</v>
+      </c>
+      <c r="T32" s="1">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>2109147</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1">
+        <v>167997895</v>
+      </c>
+      <c r="E33" s="1">
+        <v>158</v>
+      </c>
+      <c r="G33" s="1">
+        <v>856</v>
+      </c>
+      <c r="H33" s="1">
+        <v>212</v>
+      </c>
+      <c r="J33" s="1">
+        <v>329103585</v>
+      </c>
+      <c r="K33" s="1">
+        <v>4</v>
+      </c>
+      <c r="M33" s="1">
+        <v>171</v>
+      </c>
+      <c r="N33" s="1">
+        <v>147</v>
+      </c>
+      <c r="P33" s="1">
+        <v>322048241</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>16</v>
+      </c>
+      <c r="S33" s="1">
+        <v>1</v>
+      </c>
+      <c r="T33" s="1">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>40388</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0</v>
+      </c>
+      <c r="D34" s="1">
+        <v>47414168</v>
+      </c>
+      <c r="E34" s="1">
+        <v>164</v>
+      </c>
+      <c r="G34" s="1">
+        <v>492</v>
+      </c>
+      <c r="H34" s="1">
+        <v>226</v>
+      </c>
+      <c r="J34" s="1">
+        <v>29885342</v>
+      </c>
+      <c r="K34" s="1">
+        <v>5</v>
+      </c>
+      <c r="M34" s="1">
+        <v>132</v>
+      </c>
+      <c r="N34" s="1">
+        <v>173</v>
+      </c>
+      <c r="P34" s="1">
+        <v>1077849660</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>23</v>
+      </c>
+      <c r="S34" s="1">
+        <v>316</v>
+      </c>
+      <c r="T34" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>69121</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0</v>
+      </c>
+      <c r="D35" s="1">
+        <v>86159533</v>
+      </c>
+      <c r="E35" s="1">
+        <v>170</v>
+      </c>
+      <c r="G35" s="1">
+        <v>57</v>
+      </c>
+      <c r="H35" s="1">
+        <v>221</v>
+      </c>
+      <c r="J35" s="1">
+        <v>597667</v>
+      </c>
+      <c r="K35" s="1">
+        <v>4</v>
+      </c>
+      <c r="M35" s="1">
+        <v>195</v>
+      </c>
+      <c r="N35" s="1">
+        <v>144</v>
+      </c>
+      <c r="P35" s="1">
+        <v>707463191</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>16</v>
+      </c>
+      <c r="S35" s="1">
+        <v>271</v>
+      </c>
+      <c r="T35" s="1">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>17774</v>
+      </c>
+      <c r="B36" s="1">
+        <v>0</v>
+      </c>
+      <c r="D36" s="1">
+        <v>334036978</v>
+      </c>
+      <c r="E36" s="1">
+        <v>162</v>
+      </c>
+      <c r="G36" s="1">
+        <v>2228</v>
+      </c>
+      <c r="H36" s="1">
+        <v>213</v>
+      </c>
+      <c r="J36" s="1">
+        <v>676409834</v>
+      </c>
+      <c r="K36" s="1">
+        <v>4</v>
+      </c>
+      <c r="M36" s="1">
+        <v>106</v>
+      </c>
+      <c r="N36" s="1">
+        <v>156</v>
+      </c>
+      <c r="P36" s="1">
+        <v>313289258</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>16</v>
+      </c>
+      <c r="S36" s="1">
+        <v>434</v>
+      </c>
+      <c r="T36" s="1">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>97919</v>
+      </c>
+      <c r="B37" s="1">
+        <v>0</v>
+      </c>
+      <c r="D37" s="1">
+        <v>82466471</v>
+      </c>
+      <c r="E37" s="1">
+        <v>163</v>
+      </c>
+      <c r="G37" s="1">
+        <v>835</v>
+      </c>
+      <c r="H37" s="1">
+        <v>210</v>
+      </c>
+      <c r="J37" s="1">
+        <v>293797847</v>
+      </c>
+      <c r="K37" s="1">
+        <v>5</v>
+      </c>
+      <c r="M37" s="1">
+        <v>147</v>
+      </c>
+      <c r="N37" s="1">
+        <v>151</v>
+      </c>
+      <c r="P37" s="1">
+        <v>177070661</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>17</v>
+      </c>
+      <c r="S37" s="1">
+        <v>125</v>
+      </c>
+      <c r="T37" s="1">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>18260</v>
+      </c>
+      <c r="B38" s="1">
+        <v>0</v>
+      </c>
+      <c r="D38" s="1">
+        <v>51532788</v>
+      </c>
+      <c r="E38" s="1">
+        <v>168</v>
+      </c>
+      <c r="G38" s="1">
+        <v>1168</v>
+      </c>
+      <c r="H38" s="1">
+        <v>208</v>
+      </c>
+      <c r="J38" s="1">
+        <v>519881860</v>
+      </c>
+      <c r="K38" s="1">
+        <v>4</v>
+      </c>
+      <c r="M38" s="1">
+        <v>596</v>
+      </c>
+      <c r="N38" s="1">
+        <v>145</v>
+      </c>
+      <c r="P38" s="1">
+        <v>481963944</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>18</v>
+      </c>
+      <c r="S38" s="1">
+        <v>260</v>
+      </c>
+      <c r="T38" s="1">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>43789</v>
+      </c>
+      <c r="B39" s="1">
+        <v>0</v>
+      </c>
+      <c r="D39" s="1">
+        <v>279002089</v>
+      </c>
+      <c r="E39" s="1">
+        <v>163</v>
+      </c>
+      <c r="G39" s="1">
+        <v>241</v>
+      </c>
+      <c r="H39" s="1">
+        <v>210</v>
+      </c>
+      <c r="J39" s="1">
+        <v>124325851</v>
+      </c>
+      <c r="K39" s="1">
+        <v>4</v>
+      </c>
+      <c r="M39" s="1">
+        <v>959</v>
+      </c>
+      <c r="N39" s="1">
+        <v>154</v>
+      </c>
+      <c r="P39" s="1">
+        <v>204176169</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>17</v>
+      </c>
+      <c r="S39" s="1">
+        <v>7</v>
+      </c>
+      <c r="T39" s="1">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>55900</v>
+      </c>
+      <c r="B40" s="1">
+        <v>0</v>
+      </c>
+      <c r="D40" s="1">
+        <v>134849266</v>
+      </c>
+      <c r="E40" s="1">
+        <v>169</v>
+      </c>
+      <c r="G40" s="1">
+        <v>466</v>
+      </c>
+      <c r="H40" s="1">
+        <v>213</v>
+      </c>
+      <c r="J40" s="1">
+        <v>796786744</v>
+      </c>
+      <c r="K40" s="1">
+        <v>4</v>
+      </c>
+      <c r="M40" s="1">
+        <v>264</v>
+      </c>
+      <c r="N40" s="1">
+        <v>152</v>
+      </c>
+      <c r="P40" s="1">
+        <v>60210356</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>16</v>
+      </c>
+      <c r="S40" s="1">
+        <v>106</v>
+      </c>
+      <c r="T40" s="1">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>39059</v>
+      </c>
+      <c r="B41" s="1">
+        <v>0</v>
+      </c>
+      <c r="D41" s="1">
+        <v>331421497</v>
+      </c>
+      <c r="E41" s="1">
+        <v>162</v>
+      </c>
+      <c r="G41" s="1">
+        <v>1241</v>
+      </c>
+      <c r="H41" s="1">
+        <v>213</v>
+      </c>
+      <c r="J41" s="1">
+        <v>519597565</v>
+      </c>
+      <c r="K41" s="1">
+        <v>4</v>
+      </c>
+      <c r="M41" s="1">
+        <v>39</v>
+      </c>
+      <c r="N41" s="1">
+        <v>154</v>
+      </c>
+      <c r="P41" s="1">
+        <v>757729257</v>
+      </c>
+      <c r="Q41" s="1">
+        <v>17</v>
+      </c>
+      <c r="S41" s="1">
+        <v>357</v>
+      </c>
+      <c r="T41" s="1">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>120772</v>
+      </c>
+      <c r="B42" s="1">
+        <v>0</v>
+      </c>
+      <c r="D42" s="1">
+        <v>124523850</v>
+      </c>
+      <c r="E42" s="1">
+        <v>167</v>
+      </c>
+      <c r="G42" s="1">
+        <v>710</v>
+      </c>
+      <c r="H42" s="1">
+        <v>215</v>
+      </c>
+      <c r="J42" s="1">
+        <v>30662558</v>
+      </c>
+      <c r="K42" s="1">
+        <v>5</v>
+      </c>
+      <c r="M42" s="1">
+        <v>248</v>
+      </c>
+      <c r="N42" s="1">
+        <v>149</v>
+      </c>
+      <c r="P42" s="1">
+        <v>976960160</v>
+      </c>
+      <c r="Q42" s="1">
+        <v>17</v>
+      </c>
+      <c r="S42" s="1">
+        <v>54</v>
+      </c>
+      <c r="T42" s="1">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>1117883</v>
+      </c>
+      <c r="B43" s="1">
+        <v>0</v>
+      </c>
+      <c r="D43" s="1">
+        <v>1130349085</v>
+      </c>
+      <c r="E43" s="1">
+        <v>157</v>
+      </c>
+      <c r="G43" s="1">
+        <v>1623</v>
+      </c>
+      <c r="H43" s="1">
+        <v>216</v>
+      </c>
+      <c r="J43" s="1">
+        <v>376927525</v>
+      </c>
+      <c r="K43" s="1">
+        <v>4</v>
+      </c>
+      <c r="M43" s="1">
+        <v>1139</v>
+      </c>
+      <c r="N43" s="1">
+        <v>143</v>
+      </c>
+      <c r="P43" s="1">
+        <v>717181919</v>
+      </c>
+      <c r="Q43" s="1">
+        <v>16</v>
+      </c>
+      <c r="S43" s="1">
+        <v>89</v>
+      </c>
+      <c r="T43" s="1">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>301497</v>
+      </c>
+      <c r="B44" s="1">
+        <v>0</v>
+      </c>
+      <c r="D44" s="1">
+        <v>43303345</v>
+      </c>
+      <c r="E44" s="1">
+        <v>160</v>
+      </c>
+      <c r="G44" s="1">
+        <v>3303</v>
+      </c>
+      <c r="H44" s="1">
+        <v>224</v>
+      </c>
+      <c r="J44" s="1">
+        <v>851319195</v>
+      </c>
+      <c r="K44" s="1">
+        <v>4</v>
+      </c>
+      <c r="M44" s="1">
+        <v>293</v>
+      </c>
+      <c r="N44" s="1">
+        <v>157</v>
+      </c>
+      <c r="P44" s="1">
+        <v>156778241</v>
+      </c>
+      <c r="Q44" s="1">
+        <v>16</v>
+      </c>
+      <c r="S44" s="1">
+        <v>151</v>
+      </c>
+      <c r="T44" s="1">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>183427</v>
+      </c>
+      <c r="B45" s="1">
+        <v>0</v>
+      </c>
+      <c r="D45" s="1">
+        <v>68453145</v>
+      </c>
+      <c r="E45" s="1">
+        <v>167</v>
+      </c>
+      <c r="G45" s="1">
+        <v>285</v>
+      </c>
+      <c r="H45" s="1">
+        <v>221</v>
+      </c>
+      <c r="J45" s="1">
+        <v>284002793</v>
+      </c>
+      <c r="K45" s="1">
+        <v>4</v>
+      </c>
+      <c r="M45" s="1">
+        <v>797</v>
+      </c>
+      <c r="N45" s="1">
+        <v>156</v>
+      </c>
+      <c r="P45" s="1">
+        <v>565621815</v>
+      </c>
+      <c r="Q45" s="1">
+        <v>19</v>
+      </c>
+      <c r="S45" s="1">
+        <v>135</v>
+      </c>
+      <c r="T45" s="1">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>108326</v>
+      </c>
+      <c r="B46" s="1">
+        <v>0</v>
+      </c>
+      <c r="D46" s="1">
+        <v>935431386</v>
+      </c>
+      <c r="E46" s="1">
+        <v>164</v>
+      </c>
+      <c r="G46" s="1">
+        <v>3852</v>
+      </c>
+      <c r="H46" s="1">
+        <v>225</v>
+      </c>
+      <c r="J46" s="1">
+        <v>476030536</v>
+      </c>
+      <c r="K46" s="1">
+        <v>4</v>
+      </c>
+      <c r="M46" s="1">
+        <v>42</v>
+      </c>
+      <c r="N46" s="1">
+        <v>155</v>
+      </c>
+      <c r="P46" s="1">
+        <v>380719888</v>
+      </c>
+      <c r="Q46" s="1">
+        <v>17</v>
+      </c>
+      <c r="S46" s="1">
+        <v>122</v>
+      </c>
+      <c r="T46" s="1">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>182990</v>
+      </c>
+      <c r="B47" s="1">
+        <v>0</v>
+      </c>
+      <c r="D47" s="1">
+        <v>758889468</v>
+      </c>
+      <c r="E47" s="1">
+        <v>166</v>
+      </c>
+      <c r="G47" s="1">
+        <v>1520</v>
+      </c>
+      <c r="H47" s="1">
+        <v>218</v>
+      </c>
+      <c r="J47" s="1">
+        <v>58596306</v>
+      </c>
+      <c r="K47" s="1">
+        <v>5</v>
+      </c>
+      <c r="M47" s="1">
+        <v>500</v>
+      </c>
+      <c r="N47" s="1">
+        <v>162</v>
+      </c>
+      <c r="P47" s="1">
+        <v>380877174</v>
+      </c>
+      <c r="Q47" s="1">
+        <v>18</v>
+      </c>
+      <c r="S47" s="1">
+        <v>60</v>
+      </c>
+      <c r="T47" s="1">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>111300</v>
+      </c>
+      <c r="B48" s="1">
+        <v>0</v>
+      </c>
+      <c r="D48" s="1">
+        <v>333981482</v>
+      </c>
+      <c r="E48" s="1">
+        <v>167</v>
+      </c>
+      <c r="G48" s="1">
+        <v>2056</v>
+      </c>
+      <c r="H48" s="1">
+        <v>220</v>
+      </c>
+      <c r="J48" s="1">
+        <v>302855310</v>
+      </c>
+      <c r="K48" s="1">
+        <v>4</v>
+      </c>
+      <c r="M48" s="1">
+        <v>410</v>
+      </c>
+      <c r="N48" s="1">
+        <v>157</v>
+      </c>
+      <c r="P48" s="1">
+        <v>49787908</v>
+      </c>
+      <c r="Q48" s="1">
+        <v>17</v>
+      </c>
+      <c r="S48" s="1">
+        <v>100</v>
+      </c>
+      <c r="T48" s="1">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>86146</v>
+      </c>
+      <c r="B49" s="1">
+        <v>0</v>
+      </c>
+      <c r="D49" s="1">
+        <v>198546078</v>
+      </c>
+      <c r="E49" s="1">
+        <v>170</v>
+      </c>
+      <c r="G49" s="1">
+        <v>1192</v>
+      </c>
+      <c r="H49" s="1">
+        <v>214</v>
+      </c>
+      <c r="J49" s="1">
+        <v>328686344</v>
+      </c>
+      <c r="K49" s="1">
+        <v>4</v>
+      </c>
+      <c r="M49" s="1">
+        <v>132</v>
+      </c>
+      <c r="N49" s="1">
+        <v>151</v>
+      </c>
+      <c r="P49" s="1">
+        <v>23663664</v>
+      </c>
+      <c r="Q49" s="1">
+        <v>16</v>
+      </c>
+      <c r="S49" s="1">
+        <v>22</v>
+      </c>
+      <c r="T49" s="1">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>141599</v>
+      </c>
+      <c r="B50" s="1">
+        <v>0</v>
+      </c>
+      <c r="D50" s="1">
+        <v>173420911</v>
+      </c>
+      <c r="E50" s="1">
+        <v>160</v>
+      </c>
+      <c r="G50" s="1">
+        <v>114</v>
+      </c>
+      <c r="H50" s="1">
+        <v>225</v>
+      </c>
+      <c r="J50" s="1">
+        <v>85003413</v>
+      </c>
+      <c r="K50" s="1">
+        <v>4</v>
+      </c>
+      <c r="M50" s="1">
+        <v>77</v>
+      </c>
+      <c r="N50" s="1">
+        <v>186</v>
+      </c>
+      <c r="P50" s="1">
+        <v>1900433</v>
+      </c>
+      <c r="Q50" s="1">
+        <v>19</v>
+      </c>
+      <c r="S50" s="1">
+        <v>87</v>
+      </c>
+      <c r="T50" s="1">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>62679</v>
+      </c>
+      <c r="B51" s="1">
+        <v>0</v>
+      </c>
+      <c r="D51" s="1">
+        <v>694868907</v>
+      </c>
+      <c r="E51" s="1">
+        <v>165</v>
+      </c>
+      <c r="G51" s="1">
+        <v>2984</v>
+      </c>
+      <c r="H51" s="1">
+        <v>222</v>
+      </c>
+      <c r="J51" s="1">
+        <v>641430799</v>
+      </c>
+      <c r="K51" s="1">
+        <v>4</v>
+      </c>
+      <c r="M51" s="1">
+        <v>97</v>
+      </c>
+      <c r="N51" s="1">
+        <v>158</v>
+      </c>
+      <c r="P51" s="1">
+        <v>777990981</v>
+      </c>
+      <c r="Q51" s="1">
+        <v>18</v>
+      </c>
+      <c r="S51" s="1">
+        <v>271</v>
+      </c>
+      <c r="T51" s="1">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>25465</v>
+      </c>
+      <c r="B52" s="1">
+        <v>0</v>
+      </c>
+      <c r="D52" s="1">
+        <v>160953053</v>
+      </c>
+      <c r="E52" s="1">
+        <v>164</v>
+      </c>
+      <c r="G52" s="1">
+        <v>662</v>
+      </c>
+      <c r="H52" s="1">
+        <v>222</v>
+      </c>
+      <c r="J52" s="1">
+        <v>283093533</v>
+      </c>
+      <c r="K52" s="1">
+        <v>4</v>
+      </c>
+      <c r="M52" s="1">
+        <v>93</v>
+      </c>
+      <c r="N52" s="1">
+        <v>155</v>
+      </c>
+      <c r="P52" s="1">
+        <v>1959455213</v>
+      </c>
+      <c r="Q52" s="1">
+        <v>18</v>
+      </c>
+      <c r="S52" s="1">
+        <v>123</v>
+      </c>
+      <c r="T52" s="1">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>2085</v>
+      </c>
+      <c r="B53" s="1">
+        <v>0</v>
+      </c>
+      <c r="D53" s="1">
+        <v>274428087</v>
+      </c>
+      <c r="E53" s="1">
+        <v>169</v>
+      </c>
+      <c r="G53" s="1">
+        <v>2288</v>
+      </c>
+      <c r="H53" s="1">
+        <v>216</v>
+      </c>
+      <c r="J53" s="1">
+        <v>121856391</v>
+      </c>
+      <c r="K53" s="1">
+        <v>5</v>
+      </c>
+      <c r="M53" s="1">
+        <v>1789</v>
+      </c>
+      <c r="N53" s="1">
+        <v>156</v>
+      </c>
+      <c r="P53" s="1">
+        <v>151653581</v>
+      </c>
+      <c r="Q53" s="1">
+        <v>21</v>
+      </c>
+      <c r="S53" s="1">
+        <v>493</v>
+      </c>
+      <c r="T53" s="1">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>89165</v>
+      </c>
+      <c r="B54" s="1">
+        <v>0</v>
+      </c>
+      <c r="D54" s="1">
+        <v>326607683</v>
+      </c>
+      <c r="E54" s="1">
+        <v>161</v>
+      </c>
+      <c r="G54" s="1">
+        <v>688</v>
+      </c>
+      <c r="H54" s="1">
+        <v>225</v>
+      </c>
+      <c r="J54" s="1">
+        <v>322543419</v>
+      </c>
+      <c r="K54" s="1">
+        <v>4</v>
+      </c>
+      <c r="M54" s="1">
+        <v>781</v>
+      </c>
+      <c r="N54" s="1">
+        <v>158</v>
+      </c>
+      <c r="P54" s="1">
+        <v>6530659</v>
+      </c>
+      <c r="Q54" s="1">
+        <v>18</v>
+      </c>
+      <c r="S54" s="1">
+        <v>73</v>
+      </c>
+      <c r="T54" s="1">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>493498</v>
+      </c>
+      <c r="B55" s="1">
+        <v>0</v>
+      </c>
+      <c r="D55" s="1">
+        <v>819673704</v>
+      </c>
+      <c r="E55" s="1">
+        <v>165</v>
+      </c>
+      <c r="G55" s="1">
+        <v>1276</v>
+      </c>
+      <c r="H55" s="1">
+        <v>218</v>
+      </c>
+      <c r="J55" s="1">
+        <v>343957032</v>
+      </c>
+      <c r="K55" s="1">
+        <v>4</v>
+      </c>
+      <c r="M55" s="1">
+        <v>284</v>
+      </c>
+      <c r="N55" s="1">
+        <v>157</v>
+      </c>
+      <c r="P55" s="1">
+        <v>491557514</v>
+      </c>
+      <c r="Q55" s="1">
+        <v>19</v>
+      </c>
+      <c r="S55" s="1">
+        <v>154</v>
+      </c>
+      <c r="T55" s="1">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>4234</v>
+      </c>
+      <c r="B56" s="1">
+        <v>0</v>
+      </c>
+      <c r="D56" s="1">
+        <v>139986326</v>
+      </c>
+      <c r="E56" s="1">
+        <v>164</v>
+      </c>
+      <c r="G56" s="1">
+        <v>7362</v>
+      </c>
+      <c r="H56" s="1">
+        <v>217</v>
+      </c>
+      <c r="J56" s="1">
+        <v>20347240</v>
+      </c>
+      <c r="K56" s="1">
+        <v>5</v>
+      </c>
+      <c r="M56" s="1">
+        <v>754</v>
+      </c>
+      <c r="N56" s="1">
+        <v>151</v>
+      </c>
+      <c r="P56" s="1">
+        <v>128693434</v>
+      </c>
+      <c r="Q56" s="1">
+        <v>17</v>
+      </c>
+      <c r="S56" s="1">
+        <v>174</v>
+      </c>
+      <c r="T56" s="1">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>387284</v>
+      </c>
+      <c r="B57" s="1">
+        <v>0</v>
+      </c>
+      <c r="D57" s="1">
+        <v>302142106</v>
+      </c>
+      <c r="E57" s="1">
+        <v>164</v>
+      </c>
+      <c r="G57" s="1">
+        <v>9402</v>
+      </c>
+      <c r="H57" s="1">
+        <v>217</v>
+      </c>
+      <c r="J57" s="1">
+        <v>160441948</v>
+      </c>
+      <c r="K57" s="1">
+        <v>4</v>
+      </c>
+      <c r="M57" s="1">
+        <v>190</v>
+      </c>
+      <c r="N57" s="1">
+        <v>154</v>
+      </c>
+      <c r="P57" s="1">
+        <v>402916466</v>
+      </c>
+      <c r="Q57" s="1">
+        <v>17</v>
+      </c>
+      <c r="S57" s="1">
+        <v>130</v>
+      </c>
+      <c r="T57" s="1">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>25815</v>
+      </c>
+      <c r="B58" s="1">
+        <v>0</v>
+      </c>
+      <c r="D58" s="1">
+        <v>57190567</v>
+      </c>
+      <c r="E58" s="1">
+        <v>163</v>
+      </c>
+      <c r="G58" s="1">
+        <v>69</v>
+      </c>
+      <c r="H58" s="1">
+        <v>218</v>
+      </c>
+      <c r="J58" s="1">
+        <v>30091127</v>
+      </c>
+      <c r="K58" s="1">
+        <v>4</v>
+      </c>
+      <c r="M58" s="1">
+        <v>63</v>
+      </c>
+      <c r="N58" s="1">
+        <v>155</v>
+      </c>
+      <c r="P58" s="1">
+        <v>215499347</v>
+      </c>
+      <c r="Q58" s="1">
+        <v>20</v>
+      </c>
+      <c r="S58" s="1">
+        <v>241</v>
+      </c>
+      <c r="T58" s="1">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>106754</v>
+      </c>
+      <c r="B59" s="1">
+        <v>0</v>
+      </c>
+      <c r="D59" s="1">
+        <v>18104774</v>
+      </c>
+      <c r="E59" s="1">
+        <v>163</v>
+      </c>
+      <c r="G59" s="1">
+        <v>2872</v>
+      </c>
+      <c r="H59" s="1">
+        <v>216</v>
+      </c>
+      <c r="J59" s="1">
+        <v>786113742</v>
+      </c>
+      <c r="K59" s="1">
+        <v>4</v>
+      </c>
+      <c r="M59" s="1">
+        <v>672</v>
+      </c>
+      <c r="N59" s="1">
+        <v>154</v>
+      </c>
+      <c r="P59" s="1">
+        <v>282499058</v>
+      </c>
+      <c r="Q59" s="1">
+        <v>21</v>
+      </c>
+      <c r="S59" s="1">
+        <v>64</v>
+      </c>
+      <c r="T59" s="1">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>6890</v>
+      </c>
+      <c r="B60" s="1">
+        <v>0</v>
+      </c>
+      <c r="D60" s="1">
+        <v>346307966</v>
+      </c>
+      <c r="E60" s="1">
+        <v>164</v>
+      </c>
+      <c r="G60" s="1">
+        <v>2360</v>
+      </c>
+      <c r="H60" s="1">
+        <v>221</v>
+      </c>
+      <c r="J60" s="1">
+        <v>860249570</v>
+      </c>
+      <c r="K60" s="1">
+        <v>4</v>
+      </c>
+      <c r="M60" s="1">
+        <v>188</v>
+      </c>
+      <c r="N60" s="1">
+        <v>159</v>
+      </c>
+      <c r="P60" s="1">
+        <v>477692184</v>
+      </c>
+      <c r="Q60" s="1">
+        <v>17</v>
+      </c>
+      <c r="S60" s="1">
+        <v>28</v>
+      </c>
+      <c r="T60" s="1">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>194855</v>
+      </c>
+      <c r="B61" s="1">
+        <v>0</v>
+      </c>
+      <c r="D61" s="1">
+        <v>77230245</v>
+      </c>
+      <c r="E61" s="1">
+        <v>166</v>
+      </c>
+      <c r="G61" s="1">
+        <v>4197</v>
+      </c>
+      <c r="H61" s="1">
+        <v>218</v>
+      </c>
+      <c r="J61" s="1">
+        <v>735161553</v>
+      </c>
+      <c r="K61" s="1">
+        <v>4</v>
+      </c>
+      <c r="M61" s="1">
+        <v>39</v>
+      </c>
+      <c r="N61" s="1">
+        <v>149</v>
+      </c>
+      <c r="P61" s="1">
+        <v>146907331</v>
+      </c>
+      <c r="Q61" s="1">
+        <v>16</v>
+      </c>
+      <c r="S61" s="1">
+        <v>209</v>
+      </c>
+      <c r="T61" s="1">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>179255</v>
+      </c>
+      <c r="B62" s="1">
+        <v>0</v>
+      </c>
+      <c r="D62" s="1">
+        <v>63135587</v>
+      </c>
+      <c r="E62" s="1">
+        <v>162</v>
+      </c>
+      <c r="G62" s="1">
+        <v>3768</v>
+      </c>
+      <c r="H62" s="1">
+        <v>219</v>
+      </c>
+      <c r="J62" s="1">
+        <v>39774985</v>
+      </c>
+      <c r="K62" s="1">
+        <v>4</v>
+      </c>
+      <c r="M62" s="1">
+        <v>17</v>
+      </c>
+      <c r="N62" s="1">
+        <v>151</v>
+      </c>
+      <c r="P62" s="1">
+        <v>161606979</v>
+      </c>
+      <c r="Q62" s="1">
+        <v>17</v>
+      </c>
+      <c r="S62" s="1">
+        <v>113</v>
+      </c>
+      <c r="T62" s="1">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>56473</v>
+      </c>
+      <c r="B63" s="1">
+        <v>0</v>
+      </c>
+      <c r="D63" s="1">
+        <v>294462295</v>
+      </c>
+      <c r="E63" s="1">
+        <v>161</v>
+      </c>
+      <c r="G63" s="1">
+        <v>9</v>
+      </c>
+      <c r="H63" s="1">
+        <v>225</v>
+      </c>
+      <c r="J63" s="1">
+        <v>223302969</v>
+      </c>
+      <c r="K63" s="1">
+        <v>5</v>
+      </c>
+      <c r="M63" s="1">
+        <v>1125</v>
+      </c>
+      <c r="N63" s="1">
+        <v>152</v>
+      </c>
+      <c r="P63" s="1">
+        <v>658390773</v>
+      </c>
+      <c r="Q63" s="1">
+        <v>17</v>
+      </c>
+      <c r="S63" s="1">
+        <v>71</v>
+      </c>
+      <c r="T63" s="1">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>8481</v>
+      </c>
+      <c r="B64" s="1">
+        <v>0</v>
+      </c>
+      <c r="D64" s="1">
+        <v>777279369</v>
+      </c>
+      <c r="E64" s="1">
+        <v>163</v>
+      </c>
+      <c r="G64" s="1">
+        <v>722</v>
+      </c>
+      <c r="H64" s="1">
+        <v>220</v>
+      </c>
+      <c r="J64" s="1">
+        <v>38719681</v>
+      </c>
+      <c r="K64" s="1">
+        <v>4</v>
+      </c>
+      <c r="M64" s="1">
+        <v>471</v>
+      </c>
+      <c r="N64" s="1">
+        <v>156</v>
+      </c>
+      <c r="P64" s="1">
+        <v>1287066573</v>
+      </c>
+      <c r="Q64" s="1">
+        <v>16</v>
+      </c>
+      <c r="S64" s="1">
+        <v>191</v>
+      </c>
+      <c r="T64" s="1">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>236591</v>
+      </c>
+      <c r="B65" s="1">
+        <v>0</v>
+      </c>
+      <c r="D65" s="1">
+        <v>109886811</v>
+      </c>
+      <c r="E65" s="1">
+        <v>161</v>
+      </c>
+      <c r="G65" s="1">
+        <v>1162</v>
+      </c>
+      <c r="H65" s="1">
+        <v>222</v>
+      </c>
+      <c r="J65" s="1">
+        <v>143390707</v>
+      </c>
+      <c r="K65" s="1">
+        <v>4</v>
+      </c>
+      <c r="M65" s="1">
+        <v>165</v>
+      </c>
+      <c r="N65" s="1">
+        <v>155</v>
+      </c>
+      <c r="P65" s="1">
+        <v>17881801</v>
+      </c>
+      <c r="Q65" s="1">
+        <v>21</v>
+      </c>
+      <c r="S65" s="1">
+        <v>87</v>
+      </c>
+      <c r="T65" s="1">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>752035</v>
+      </c>
+      <c r="B66" s="1">
+        <v>0</v>
+      </c>
+      <c r="D66" s="1">
+        <v>72677285</v>
+      </c>
+      <c r="E66" s="1">
+        <v>169</v>
+      </c>
+      <c r="G66" s="1">
+        <v>3292</v>
+      </c>
+      <c r="H66" s="1">
+        <v>210</v>
+      </c>
+      <c r="J66" s="1">
+        <v>709695921</v>
+      </c>
+      <c r="K66" s="1">
+        <v>4</v>
+      </c>
+      <c r="M66" s="1">
+        <v>589</v>
+      </c>
+      <c r="N66" s="1">
+        <v>155</v>
+      </c>
+      <c r="P66" s="1">
+        <v>81070325</v>
+      </c>
+      <c r="Q66" s="1">
+        <v>18</v>
+      </c>
+      <c r="S66" s="1">
+        <v>157</v>
+      </c>
+      <c r="T66" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <v>238484</v>
+      </c>
+      <c r="B67" s="1">
+        <v>0</v>
+      </c>
+      <c r="D67" s="1">
+        <v>40813372</v>
+      </c>
+      <c r="E67" s="1">
+        <v>170</v>
+      </c>
+      <c r="G67" s="1">
+        <v>2070</v>
+      </c>
+      <c r="H67" s="1">
+        <v>279</v>
+      </c>
+      <c r="J67" s="1">
+        <v>86216346</v>
+      </c>
+      <c r="K67" s="1">
+        <v>4</v>
+      </c>
+      <c r="M67" s="1">
+        <v>442</v>
+      </c>
+      <c r="N67" s="1">
+        <v>172</v>
+      </c>
+      <c r="P67" s="1">
+        <v>66128908</v>
+      </c>
+      <c r="Q67" s="1">
+        <v>17</v>
+      </c>
+      <c r="S67" s="1">
+        <v>42</v>
+      </c>
+      <c r="T67" s="1">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>399523</v>
+      </c>
+      <c r="B68" s="1">
+        <v>0</v>
+      </c>
+      <c r="D68" s="1">
+        <v>128097235</v>
+      </c>
+      <c r="E68" s="1">
+        <v>168</v>
+      </c>
+      <c r="G68" s="1">
+        <v>670</v>
+      </c>
+      <c r="H68" s="1">
+        <v>232</v>
+      </c>
+      <c r="J68" s="1">
+        <v>532913273</v>
+      </c>
+      <c r="K68" s="1">
+        <v>4</v>
+      </c>
+      <c r="M68" s="1">
+        <v>359</v>
+      </c>
+      <c r="N68" s="1">
+        <v>162</v>
+      </c>
+      <c r="P68" s="1">
+        <v>1589778159</v>
+      </c>
+      <c r="Q68" s="1">
+        <v>16</v>
+      </c>
+      <c r="S68" s="1">
+        <v>139</v>
+      </c>
+      <c r="T68" s="1">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <v>528710</v>
+      </c>
+      <c r="B69" s="1">
+        <v>0</v>
+      </c>
+      <c r="D69" s="1">
+        <v>645146938</v>
+      </c>
+      <c r="E69" s="1">
+        <v>162</v>
+      </c>
+      <c r="G69" s="1">
+        <v>2836</v>
+      </c>
+      <c r="H69" s="1">
+        <v>218</v>
+      </c>
+      <c r="J69" s="1">
+        <v>75995532</v>
+      </c>
+      <c r="K69" s="1">
+        <v>4</v>
+      </c>
+      <c r="M69" s="1">
+        <v>466</v>
+      </c>
+      <c r="N69" s="1">
+        <v>157</v>
+      </c>
+      <c r="P69" s="1">
+        <v>348224336</v>
+      </c>
+      <c r="Q69" s="1">
+        <v>21</v>
+      </c>
+      <c r="S69" s="1">
+        <v>252</v>
+      </c>
+      <c r="T69" s="1">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <v>115552</v>
+      </c>
+      <c r="B70" s="1">
+        <v>0</v>
+      </c>
+      <c r="D70" s="1">
+        <v>199668184</v>
+      </c>
+      <c r="E70" s="1">
+        <v>157</v>
+      </c>
+      <c r="G70" s="1">
+        <v>1056</v>
+      </c>
+      <c r="H70" s="1">
+        <v>202</v>
+      </c>
+      <c r="J70" s="1">
+        <v>73584918</v>
+      </c>
+      <c r="K70" s="1">
+        <v>4</v>
+      </c>
+      <c r="M70" s="1">
+        <v>264</v>
+      </c>
+      <c r="N70" s="1">
+        <v>149</v>
+      </c>
+      <c r="P70" s="1">
+        <v>281376430</v>
+      </c>
+      <c r="Q70" s="1">
+        <v>18</v>
+      </c>
+      <c r="S70" s="1">
+        <v>200</v>
+      </c>
+      <c r="T70" s="1">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <v>428628</v>
+      </c>
+      <c r="B71" s="1">
+        <v>0</v>
+      </c>
+      <c r="D71" s="1">
+        <v>72935614</v>
+      </c>
+      <c r="E71" s="1">
+        <v>158</v>
+      </c>
+      <c r="G71" s="1">
+        <v>632</v>
+      </c>
+      <c r="H71" s="1">
+        <v>222</v>
+      </c>
+      <c r="J71" s="1">
+        <v>80091818</v>
+      </c>
+      <c r="K71" s="1">
+        <v>4</v>
+      </c>
+      <c r="M71" s="1">
+        <v>166</v>
+      </c>
+      <c r="N71" s="1">
+        <v>147</v>
+      </c>
+      <c r="P71" s="1">
+        <v>36680944</v>
+      </c>
+      <c r="Q71" s="1">
+        <v>17</v>
+      </c>
+      <c r="S71" s="1">
+        <v>22</v>
+      </c>
+      <c r="T71" s="1">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <v>23809</v>
+      </c>
+      <c r="B72" s="1">
+        <v>0</v>
+      </c>
+      <c r="D72" s="1">
+        <v>356628987</v>
+      </c>
+      <c r="E72" s="1">
+        <v>161</v>
+      </c>
+      <c r="G72" s="1">
+        <v>898</v>
+      </c>
+      <c r="H72" s="1">
+        <v>216</v>
+      </c>
+      <c r="J72" s="1">
+        <v>85168809</v>
+      </c>
+      <c r="K72" s="1">
+        <v>5</v>
+      </c>
+      <c r="M72" s="1">
+        <v>31</v>
+      </c>
+      <c r="N72" s="1">
+        <v>160</v>
+      </c>
+      <c r="P72" s="1">
+        <v>29664851</v>
+      </c>
+      <c r="Q72" s="1">
+        <v>18</v>
+      </c>
+      <c r="S72" s="1">
+        <v>207</v>
+      </c>
+      <c r="T72" s="1">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <v>502171</v>
+      </c>
+      <c r="B73" s="1">
+        <v>0</v>
+      </c>
+      <c r="D73" s="1">
+        <v>40678447</v>
+      </c>
+      <c r="E73" s="1">
+        <v>168</v>
+      </c>
+      <c r="G73" s="1">
+        <v>1026</v>
+      </c>
+      <c r="H73" s="1">
+        <v>221</v>
+      </c>
+      <c r="J73" s="1">
+        <v>259153437</v>
+      </c>
+      <c r="K73" s="1">
+        <v>4</v>
+      </c>
+      <c r="M73" s="1">
+        <v>93</v>
+      </c>
+      <c r="N73" s="1">
+        <v>153</v>
+      </c>
+      <c r="P73" s="1">
+        <v>10948907</v>
+      </c>
+      <c r="Q73" s="1">
+        <v>17</v>
+      </c>
+      <c r="S73" s="1">
+        <v>1229</v>
+      </c>
+      <c r="T73" s="1">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
+        <v>80275</v>
+      </c>
+      <c r="B74" s="1">
+        <v>0</v>
+      </c>
+      <c r="D74" s="1">
+        <v>406084845</v>
+      </c>
+      <c r="E74" s="1">
+        <v>165</v>
+      </c>
+      <c r="G74" s="1">
+        <v>2157</v>
+      </c>
+      <c r="H74" s="1">
+        <v>223</v>
+      </c>
+      <c r="J74" s="1">
+        <v>214538207</v>
+      </c>
+      <c r="K74" s="1">
+        <v>4</v>
+      </c>
+      <c r="M74" s="1">
+        <v>175</v>
+      </c>
+      <c r="N74" s="1">
+        <v>166</v>
+      </c>
+      <c r="P74" s="1">
+        <v>486557647</v>
+      </c>
+      <c r="Q74" s="1">
+        <v>18</v>
+      </c>
+      <c r="S74" s="1">
+        <v>505</v>
+      </c>
+      <c r="T74" s="1">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
+        <v>67475</v>
+      </c>
+      <c r="B75" s="1">
+        <v>0</v>
+      </c>
+      <c r="D75" s="1">
+        <v>487392057</v>
+      </c>
+      <c r="E75" s="1">
+        <v>165</v>
+      </c>
+      <c r="G75" s="1">
+        <v>674</v>
+      </c>
+      <c r="H75" s="1">
+        <v>219</v>
+      </c>
+      <c r="J75" s="1">
+        <v>19239223</v>
+      </c>
+      <c r="K75" s="1">
+        <v>5</v>
+      </c>
+      <c r="M75" s="1">
+        <v>147</v>
+      </c>
+      <c r="N75" s="1">
+        <v>159</v>
+      </c>
+      <c r="P75" s="1">
+        <v>18577541</v>
+      </c>
+      <c r="Q75" s="1">
+        <v>17</v>
+      </c>
+      <c r="S75" s="1">
+        <v>17</v>
+      </c>
+      <c r="T75" s="1">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
+        <v>621316</v>
+      </c>
+      <c r="B76" s="1">
+        <v>0</v>
+      </c>
+      <c r="D76" s="1">
+        <v>48720188</v>
+      </c>
+      <c r="E76" s="1">
+        <v>161</v>
+      </c>
+      <c r="G76" s="1">
+        <v>136</v>
+      </c>
+      <c r="H76" s="1">
+        <v>222</v>
+      </c>
+      <c r="J76" s="1">
+        <v>1138160986</v>
+      </c>
+      <c r="K76" s="1">
+        <v>5</v>
+      </c>
+      <c r="M76" s="1">
+        <v>1114</v>
+      </c>
+      <c r="N76" s="1">
+        <v>152</v>
+      </c>
+      <c r="P76" s="1">
+        <v>2533950560</v>
+      </c>
+      <c r="Q76" s="1">
+        <v>17</v>
+      </c>
+      <c r="S76" s="1">
+        <v>120</v>
+      </c>
+      <c r="T76" s="1">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
+        <v>150751</v>
+      </c>
+      <c r="B77" s="1">
+        <v>0</v>
+      </c>
+      <c r="D77" s="1">
+        <v>790730433</v>
+      </c>
+      <c r="E77" s="1">
+        <v>166</v>
+      </c>
+      <c r="G77" s="1">
+        <v>2113</v>
+      </c>
+      <c r="H77" s="1">
+        <v>229</v>
+      </c>
+      <c r="J77" s="1">
+        <v>209041399</v>
+      </c>
+      <c r="K77" s="1">
+        <v>4</v>
+      </c>
+      <c r="M77" s="1">
+        <v>123</v>
+      </c>
+      <c r="N77" s="1">
+        <v>155</v>
+      </c>
+      <c r="P77" s="1">
+        <v>48592593</v>
+      </c>
+      <c r="Q77" s="1">
+        <v>17</v>
+      </c>
+      <c r="S77" s="1">
+        <v>9</v>
+      </c>
+      <c r="T77" s="1">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
+        <v>17684</v>
+      </c>
+      <c r="B78" s="1">
+        <v>0</v>
+      </c>
+      <c r="D78" s="1">
+        <v>184226300</v>
+      </c>
+      <c r="E78" s="1">
+        <v>163</v>
+      </c>
+      <c r="G78" s="1">
+        <v>82</v>
+      </c>
+      <c r="H78" s="1">
+        <v>209</v>
+      </c>
+      <c r="J78" s="1">
+        <v>1084268028</v>
+      </c>
+      <c r="K78" s="1">
+        <v>4</v>
+      </c>
+      <c r="M78" s="1">
+        <v>110</v>
+      </c>
+      <c r="N78" s="1">
+        <v>151</v>
+      </c>
+      <c r="P78" s="1">
+        <v>5617078</v>
+      </c>
+      <c r="Q78" s="1">
+        <v>18</v>
+      </c>
+      <c r="S78" s="1">
+        <v>500</v>
+      </c>
+      <c r="T78" s="1">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A79" s="1">
+        <v>74386</v>
+      </c>
+      <c r="B79" s="1">
+        <v>0</v>
+      </c>
+      <c r="D79" s="1">
+        <v>103596748</v>
+      </c>
+      <c r="E79" s="1">
+        <v>165</v>
+      </c>
+      <c r="G79" s="1">
+        <v>2702</v>
+      </c>
+      <c r="H79" s="1">
+        <v>214</v>
+      </c>
+      <c r="J79" s="1">
+        <v>592899108</v>
+      </c>
+      <c r="K79" s="1">
+        <v>4</v>
+      </c>
+      <c r="M79" s="1">
+        <v>1072</v>
+      </c>
+      <c r="N79" s="1">
+        <v>151</v>
+      </c>
+      <c r="P79" s="1">
+        <v>403712982</v>
+      </c>
+      <c r="Q79" s="1">
+        <v>17</v>
+      </c>
+      <c r="S79" s="1">
+        <v>110</v>
+      </c>
+      <c r="T79" s="1">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A80" s="1">
+        <v>25086</v>
+      </c>
+      <c r="B80" s="1">
+        <v>0</v>
+      </c>
+      <c r="D80" s="1">
+        <v>163823218</v>
+      </c>
+      <c r="E80" s="1">
+        <v>157</v>
+      </c>
+      <c r="G80" s="1">
+        <v>854</v>
+      </c>
+      <c r="H80" s="1">
+        <v>221</v>
+      </c>
+      <c r="J80" s="1">
+        <v>3046672</v>
+      </c>
+      <c r="K80" s="1">
+        <v>6</v>
+      </c>
+      <c r="M80" s="1">
+        <v>66</v>
+      </c>
+      <c r="N80" s="1">
+        <v>161</v>
+      </c>
+      <c r="P80" s="1">
+        <v>562838702</v>
+      </c>
+      <c r="Q80" s="1">
+        <v>19</v>
+      </c>
+      <c r="S80" s="1">
+        <v>526</v>
+      </c>
+      <c r="T80" s="1">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A81" s="1">
+        <v>183757</v>
+      </c>
+      <c r="B81" s="1">
+        <v>0</v>
+      </c>
+      <c r="D81" s="1">
+        <v>375016501</v>
+      </c>
+      <c r="E81" s="1">
+        <v>162</v>
+      </c>
+      <c r="G81" s="1">
+        <v>1372</v>
+      </c>
+      <c r="H81" s="1">
+        <v>215</v>
+      </c>
+      <c r="J81" s="1">
+        <v>251234343</v>
+      </c>
+      <c r="K81" s="1">
+        <v>4</v>
+      </c>
+      <c r="M81" s="1">
+        <v>701</v>
+      </c>
+      <c r="N81" s="1">
+        <v>162</v>
+      </c>
+      <c r="P81" s="1">
+        <v>201248543</v>
+      </c>
+      <c r="Q81" s="1">
+        <v>18</v>
+      </c>
+      <c r="S81" s="1">
+        <v>7</v>
+      </c>
+      <c r="T81" s="1">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A82" s="1">
+        <v>261090</v>
+      </c>
+      <c r="B82" s="1">
+        <v>0</v>
+      </c>
+      <c r="D82" s="1">
+        <v>22101442</v>
+      </c>
+      <c r="E82" s="1">
+        <v>158</v>
+      </c>
+      <c r="G82" s="1">
+        <v>210</v>
+      </c>
+      <c r="H82" s="1">
+        <v>213</v>
+      </c>
+      <c r="J82" s="1">
+        <v>114385466</v>
+      </c>
+      <c r="K82" s="1">
+        <v>4</v>
+      </c>
+      <c r="M82" s="1">
+        <v>46</v>
+      </c>
+      <c r="N82" s="1">
+        <v>149</v>
+      </c>
+      <c r="P82" s="1">
+        <v>968119684</v>
+      </c>
+      <c r="Q82" s="1">
+        <v>16</v>
+      </c>
+      <c r="S82" s="1">
+        <v>80</v>
+      </c>
+      <c r="T82" s="1">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A83" s="1">
+        <v>86075</v>
+      </c>
+      <c r="B83" s="1">
+        <v>0</v>
+      </c>
+      <c r="D83" s="1">
+        <v>209504229</v>
+      </c>
+      <c r="E83" s="1">
+        <v>171</v>
+      </c>
+      <c r="G83" s="1">
+        <v>834</v>
+      </c>
+      <c r="H83" s="1">
+        <v>219</v>
+      </c>
+      <c r="J83" s="1">
+        <v>88561341</v>
+      </c>
+      <c r="K83" s="1">
+        <v>4</v>
+      </c>
+      <c r="M83" s="1">
+        <v>1209</v>
+      </c>
+      <c r="N83" s="1">
+        <v>159</v>
+      </c>
+      <c r="P83" s="1">
+        <v>124498253</v>
+      </c>
+      <c r="Q83" s="1">
+        <v>17</v>
+      </c>
+      <c r="S83" s="1">
+        <v>127</v>
+      </c>
+      <c r="T83" s="1">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A84" s="1">
+        <v>119182</v>
+      </c>
+      <c r="B84" s="1">
+        <v>0</v>
+      </c>
+      <c r="D84" s="1">
+        <v>727709780</v>
+      </c>
+      <c r="E84" s="1">
+        <v>166</v>
+      </c>
+      <c r="G84" s="1">
+        <v>2578</v>
+      </c>
+      <c r="H84" s="1">
+        <v>214</v>
+      </c>
+      <c r="J84" s="1">
+        <v>385093838</v>
+      </c>
+      <c r="K84" s="1">
+        <v>7</v>
+      </c>
+      <c r="M84" s="1">
+        <v>594</v>
+      </c>
+      <c r="N84" s="1">
+        <v>164</v>
+      </c>
+      <c r="P84" s="1">
+        <v>327762968</v>
+      </c>
+      <c r="Q84" s="1">
+        <v>17</v>
+      </c>
+      <c r="S84" s="1">
+        <v>52</v>
+      </c>
+      <c r="T84" s="1">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A85" s="1">
+        <v>37204</v>
+      </c>
+      <c r="B85" s="1">
+        <v>1</v>
+      </c>
+      <c r="D85" s="1">
+        <v>73542070</v>
+      </c>
+      <c r="E85" s="1">
+        <v>163</v>
+      </c>
+      <c r="G85" s="1">
+        <v>412</v>
+      </c>
+      <c r="H85" s="1">
+        <v>231</v>
+      </c>
+      <c r="J85" s="1">
+        <v>84600786</v>
+      </c>
+      <c r="K85" s="1">
+        <v>4</v>
+      </c>
+      <c r="M85" s="1">
+        <v>422</v>
+      </c>
+      <c r="N85" s="1">
+        <v>163</v>
+      </c>
+      <c r="P85" s="1">
+        <v>175468384</v>
+      </c>
+      <c r="Q85" s="1">
+        <v>18</v>
+      </c>
+      <c r="S85" s="1">
+        <v>4</v>
+      </c>
+      <c r="T85" s="1">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A86" s="1">
+        <v>468846</v>
+      </c>
+      <c r="B86" s="1">
+        <v>0</v>
+      </c>
+      <c r="D86" s="1">
+        <v>35591644</v>
+      </c>
+      <c r="E86" s="1">
+        <v>162</v>
+      </c>
+      <c r="G86" s="1">
+        <v>602</v>
+      </c>
+      <c r="H86" s="1">
+        <v>223</v>
+      </c>
+      <c r="J86" s="1">
+        <v>682026382</v>
+      </c>
+      <c r="K86" s="1">
+        <v>4</v>
+      </c>
+      <c r="M86" s="1">
+        <v>528</v>
+      </c>
+      <c r="N86" s="1">
+        <v>156</v>
+      </c>
+      <c r="P86" s="1">
+        <v>33922306</v>
+      </c>
+      <c r="Q86" s="1">
+        <v>19</v>
+      </c>
+      <c r="S86" s="1">
+        <v>274</v>
+      </c>
+      <c r="T86" s="1">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A87" s="1">
+        <v>60231</v>
+      </c>
+      <c r="B87" s="1">
+        <v>0</v>
+      </c>
+      <c r="D87" s="1">
+        <v>34204503</v>
+      </c>
+      <c r="E87" s="1">
+        <v>218</v>
+      </c>
+      <c r="G87" s="1">
+        <v>634</v>
+      </c>
+      <c r="H87" s="1">
+        <v>348</v>
+      </c>
+      <c r="J87" s="1">
+        <v>496024745</v>
+      </c>
+      <c r="K87" s="1">
+        <v>12</v>
+      </c>
+      <c r="M87" s="1">
+        <v>1059</v>
+      </c>
+      <c r="N87" s="1">
+        <v>438</v>
+      </c>
+      <c r="P87" s="1">
+        <v>226162247</v>
+      </c>
+      <c r="Q87" s="1">
+        <v>35</v>
+      </c>
+      <c r="S87" s="1">
+        <v>43</v>
+      </c>
+      <c r="T87" s="1">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A88" s="1">
+        <v>124297</v>
+      </c>
+      <c r="B88" s="1">
+        <v>0</v>
+      </c>
+      <c r="D88" s="1">
+        <v>66186905</v>
+      </c>
+      <c r="E88" s="1">
+        <v>339</v>
+      </c>
+      <c r="G88" s="1">
+        <v>66</v>
+      </c>
+      <c r="H88" s="1">
+        <v>408</v>
+      </c>
+      <c r="J88" s="1">
+        <v>863266889</v>
+      </c>
+      <c r="K88" s="1">
+        <v>7</v>
+      </c>
+      <c r="M88" s="1">
+        <v>2209</v>
+      </c>
+      <c r="N88" s="1">
+        <v>381</v>
+      </c>
+      <c r="P88" s="1">
+        <v>1166664173</v>
+      </c>
+      <c r="Q88" s="1">
+        <v>32</v>
+      </c>
+      <c r="S88" s="1">
+        <v>49</v>
+      </c>
+      <c r="T88" s="1">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A89" s="1">
+        <v>323847</v>
+      </c>
+      <c r="B89" s="1">
+        <v>0</v>
+      </c>
+      <c r="D89" s="1">
+        <v>78766031</v>
+      </c>
+      <c r="E89" s="1">
+        <v>206</v>
+      </c>
+      <c r="G89" s="1">
+        <v>333</v>
+      </c>
+      <c r="H89" s="1">
+        <v>374</v>
+      </c>
+      <c r="J89" s="1">
+        <v>119795923</v>
+      </c>
+      <c r="K89" s="1">
+        <v>6</v>
+      </c>
+      <c r="M89" s="1">
+        <v>421</v>
+      </c>
+      <c r="N89" s="1">
+        <v>244</v>
+      </c>
+      <c r="P89" s="1">
+        <v>49065323</v>
+      </c>
+      <c r="Q89" s="1">
+        <v>20</v>
+      </c>
+      <c r="S89" s="1">
+        <v>171</v>
+      </c>
+      <c r="T89" s="1">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A90" s="1">
+        <v>98080</v>
+      </c>
+      <c r="B90" s="1">
+        <v>0</v>
+      </c>
+      <c r="D90" s="1">
+        <v>58499498</v>
+      </c>
+      <c r="E90" s="1">
+        <v>209</v>
+      </c>
+      <c r="G90" s="1">
+        <v>526</v>
+      </c>
+      <c r="H90" s="1">
+        <v>294</v>
+      </c>
+      <c r="J90" s="1">
+        <v>434957978</v>
+      </c>
+      <c r="K90" s="1">
+        <v>7</v>
+      </c>
+      <c r="M90" s="1">
+        <v>76</v>
+      </c>
+      <c r="N90" s="1">
+        <v>216</v>
+      </c>
+      <c r="P90" s="1">
+        <v>167877310</v>
+      </c>
+      <c r="Q90" s="1">
+        <v>20</v>
+      </c>
+      <c r="S90" s="1">
+        <v>134</v>
+      </c>
+      <c r="T90" s="1">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A91" s="1">
+        <v>212443</v>
+      </c>
+      <c r="B91" s="1">
+        <v>0</v>
+      </c>
+      <c r="D91" s="1">
+        <v>363665985</v>
+      </c>
+      <c r="E91" s="1">
+        <v>167</v>
+      </c>
+      <c r="G91" s="1">
+        <v>2288</v>
+      </c>
+      <c r="H91" s="1">
+        <v>228</v>
+      </c>
+      <c r="J91" s="1">
+        <v>294507059</v>
+      </c>
+      <c r="K91" s="1">
+        <v>5</v>
+      </c>
+      <c r="M91" s="1">
+        <v>599</v>
+      </c>
+      <c r="N91" s="1">
+        <v>157</v>
+      </c>
+      <c r="P91" s="1">
+        <v>483120061</v>
+      </c>
+      <c r="Q91" s="1">
+        <v>18</v>
+      </c>
+      <c r="S91" s="1">
+        <v>207</v>
+      </c>
+      <c r="T91" s="1">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A92" s="1">
+        <v>1345476</v>
+      </c>
+      <c r="B92" s="1">
+        <v>0</v>
+      </c>
+      <c r="D92" s="1">
+        <v>378457206</v>
+      </c>
+      <c r="E92" s="1">
+        <v>173</v>
+      </c>
+      <c r="G92" s="1">
+        <v>3432</v>
+      </c>
+      <c r="H92" s="1">
+        <v>228</v>
+      </c>
+      <c r="J92" s="1">
+        <v>52430606</v>
+      </c>
+      <c r="K92" s="1">
+        <v>4</v>
+      </c>
+      <c r="M92" s="1">
+        <v>62</v>
+      </c>
+      <c r="N92" s="1">
+        <v>155</v>
+      </c>
+      <c r="P92" s="1">
+        <v>121540674</v>
+      </c>
+      <c r="Q92" s="1">
+        <v>17</v>
+      </c>
+      <c r="S92" s="1">
+        <v>320</v>
+      </c>
+      <c r="T92" s="1">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A93" s="1">
+        <v>541280</v>
+      </c>
+      <c r="B93" s="1">
+        <v>0</v>
+      </c>
+      <c r="D93" s="1">
+        <v>134030428</v>
+      </c>
+      <c r="E93" s="1">
+        <v>158</v>
+      </c>
+      <c r="G93" s="1">
+        <v>494</v>
+      </c>
+      <c r="H93" s="1">
+        <v>228</v>
+      </c>
+      <c r="J93" s="1">
+        <v>180798134</v>
+      </c>
+      <c r="K93" s="1">
+        <v>5</v>
+      </c>
+      <c r="M93" s="1">
+        <v>454</v>
+      </c>
+      <c r="N93" s="1">
+        <v>172</v>
+      </c>
+      <c r="P93" s="1">
+        <v>399520374</v>
+      </c>
+      <c r="Q93" s="1">
+        <v>19</v>
+      </c>
+      <c r="S93" s="1">
+        <v>118</v>
+      </c>
+      <c r="T93" s="1">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A94" s="1">
+        <v>82847</v>
+      </c>
+      <c r="B94" s="1">
+        <v>0</v>
+      </c>
+      <c r="D94" s="1">
+        <v>43654983</v>
+      </c>
+      <c r="E94" s="1">
+        <v>173</v>
+      </c>
+      <c r="G94" s="1">
+        <v>305</v>
+      </c>
+      <c r="H94" s="1">
+        <v>228</v>
+      </c>
+      <c r="J94" s="1">
+        <v>54987191</v>
+      </c>
+      <c r="K94" s="1">
+        <v>4</v>
+      </c>
+      <c r="M94" s="1">
+        <v>317</v>
+      </c>
+      <c r="N94" s="1">
+        <v>150</v>
+      </c>
+      <c r="P94" s="1">
+        <v>337179457</v>
+      </c>
+      <c r="Q94" s="1">
+        <v>17</v>
+      </c>
+      <c r="S94" s="1">
+        <v>29</v>
+      </c>
+      <c r="T94" s="1">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A95" s="1">
+        <v>973509</v>
+      </c>
+      <c r="B95" s="1">
+        <v>0</v>
+      </c>
+      <c r="D95" s="1">
+        <v>539864479</v>
+      </c>
+      <c r="E95" s="1">
+        <v>161</v>
+      </c>
+      <c r="G95" s="1">
+        <v>1603</v>
+      </c>
+      <c r="H95" s="1">
+        <v>213</v>
+      </c>
+      <c r="J95" s="1">
+        <v>31937027</v>
+      </c>
+      <c r="K95" s="1">
+        <v>4</v>
+      </c>
+      <c r="M95" s="1">
+        <v>1617</v>
+      </c>
+      <c r="N95" s="1">
+        <v>175</v>
+      </c>
+      <c r="P95" s="1">
+        <v>35066959</v>
+      </c>
+      <c r="Q95" s="1">
+        <v>18</v>
+      </c>
+      <c r="S95" s="1">
+        <v>117</v>
+      </c>
+      <c r="T95" s="1">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A96" s="1">
+        <v>4419732</v>
+      </c>
+      <c r="B96" s="1">
+        <v>0</v>
+      </c>
+      <c r="D96" s="1">
+        <v>43496044</v>
+      </c>
+      <c r="E96" s="1">
+        <v>161</v>
+      </c>
+      <c r="G96" s="1">
+        <v>2652</v>
+      </c>
+      <c r="H96" s="1">
+        <v>206</v>
+      </c>
+      <c r="J96" s="1">
+        <v>270880278</v>
+      </c>
+      <c r="K96" s="1">
+        <v>4</v>
+      </c>
+      <c r="M96" s="1">
+        <v>44</v>
+      </c>
+      <c r="N96" s="1">
+        <v>157</v>
+      </c>
+      <c r="P96" s="1">
+        <v>818968212</v>
+      </c>
+      <c r="Q96" s="1">
+        <v>17</v>
+      </c>
+      <c r="S96" s="1">
+        <v>396</v>
+      </c>
+      <c r="T96" s="1">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A97" s="1">
+        <v>102439</v>
+      </c>
+      <c r="B97" s="1">
+        <v>0</v>
+      </c>
+      <c r="D97" s="1">
+        <v>638372455</v>
+      </c>
+      <c r="E97" s="1">
+        <v>170</v>
+      </c>
+      <c r="G97" s="1">
+        <v>3409</v>
+      </c>
+      <c r="H97" s="1">
+        <v>223</v>
+      </c>
+      <c r="J97" s="1">
+        <v>3829323</v>
+      </c>
+      <c r="K97" s="1">
+        <v>5</v>
+      </c>
+      <c r="M97" s="1">
+        <v>15</v>
+      </c>
+      <c r="N97" s="1">
+        <v>157</v>
+      </c>
+      <c r="P97" s="1">
+        <v>531252677</v>
+      </c>
+      <c r="Q97" s="1">
+        <v>17</v>
+      </c>
+      <c r="S97" s="1">
+        <v>479</v>
+      </c>
+      <c r="T97" s="1">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A98" s="1">
+        <v>290464</v>
+      </c>
+      <c r="B98" s="1">
+        <v>0</v>
+      </c>
+      <c r="D98" s="1">
+        <v>1555230038</v>
+      </c>
+      <c r="E98" s="1">
+        <v>165</v>
+      </c>
+      <c r="G98" s="1">
+        <v>1308</v>
+      </c>
+      <c r="H98" s="1">
+        <v>233</v>
+      </c>
+      <c r="J98" s="1">
+        <v>2359349336</v>
+      </c>
+      <c r="K98" s="1">
+        <v>5</v>
+      </c>
+      <c r="M98" s="1">
+        <v>416</v>
+      </c>
+      <c r="N98" s="1">
+        <v>169</v>
+      </c>
+      <c r="P98" s="1">
+        <v>1726988</v>
+      </c>
+      <c r="Q98" s="1">
+        <v>20</v>
+      </c>
+      <c r="S98" s="1">
+        <v>108</v>
+      </c>
+      <c r="T98" s="1">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A99" s="1">
+        <v>83944</v>
+      </c>
+      <c r="B99" s="1">
+        <v>0</v>
+      </c>
+      <c r="D99" s="1">
+        <v>242656762</v>
+      </c>
+      <c r="E99" s="1">
+        <v>170</v>
+      </c>
+      <c r="G99" s="1">
+        <v>1036</v>
+      </c>
+      <c r="H99" s="1">
+        <v>213</v>
+      </c>
+      <c r="J99" s="1">
+        <v>227419478</v>
+      </c>
+      <c r="K99" s="1">
+        <v>5</v>
+      </c>
+      <c r="M99" s="1">
+        <v>232</v>
+      </c>
+      <c r="N99" s="1">
+        <v>156</v>
+      </c>
+      <c r="P99" s="1">
+        <v>432758904</v>
+      </c>
+      <c r="Q99" s="1">
+        <v>19</v>
+      </c>
+      <c r="S99" s="1">
+        <v>6</v>
+      </c>
+      <c r="T99" s="1">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A100" s="1">
+        <v>379456</v>
+      </c>
+      <c r="B100" s="1">
+        <v>1</v>
+      </c>
+      <c r="D100" s="1">
+        <v>305738452</v>
+      </c>
+      <c r="E100" s="1">
+        <v>157</v>
+      </c>
+      <c r="G100" s="1">
+        <v>106</v>
+      </c>
+      <c r="H100" s="1">
+        <v>218</v>
+      </c>
+      <c r="J100" s="1">
+        <v>1287868642</v>
+      </c>
+      <c r="K100" s="1">
+        <v>5</v>
+      </c>
+      <c r="M100" s="1">
+        <v>308</v>
+      </c>
+      <c r="N100" s="1">
+        <v>155</v>
+      </c>
+      <c r="P100" s="1">
+        <v>455176760</v>
+      </c>
+      <c r="Q100" s="1">
+        <v>17</v>
+      </c>
+      <c r="S100" s="1">
+        <v>202</v>
+      </c>
+      <c r="T100" s="1">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A101" s="1">
+        <v>80412</v>
+      </c>
+      <c r="B101" s="1">
+        <v>0</v>
+      </c>
+      <c r="D101" s="1">
+        <v>939400318</v>
+      </c>
+      <c r="E101" s="1">
+        <v>160</v>
+      </c>
+      <c r="G101" s="1">
+        <v>422</v>
+      </c>
+      <c r="H101" s="1">
+        <v>241</v>
+      </c>
+      <c r="J101" s="1">
+        <v>642267714</v>
+      </c>
+      <c r="K101" s="1">
+        <v>8</v>
+      </c>
+      <c r="M101" s="1">
+        <v>160</v>
+      </c>
+      <c r="N101" s="1">
+        <v>180</v>
+      </c>
+      <c r="P101" s="1">
+        <v>379068530</v>
+      </c>
+      <c r="Q101" s="1">
+        <v>19</v>
+      </c>
+      <c r="S101" s="1">
+        <v>304</v>
+      </c>
+      <c r="T101" s="1">
+        <v>173</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>